--- a/4sorteddata.xlsx
+++ b/4sorteddata.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common Positive" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common Negative" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ramja_Pos_Aiims_Neg" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ramja_Neg_Aiims_Pos" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53196,4 +53197,443 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UHID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Patients Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS Result culture</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>K. Pneumoniae</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P.aurogenosa</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>A.baumnnii</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>P.mirabilis</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>S. aureus</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>E.faecalis</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>S. saprophyticus</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Diagnosis</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Abdominal pain</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BurningMicturition</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Urinating often</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Vaginal irritation</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Fatigue</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Malaise</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>WeightLoss</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Cough</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Expectoration</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>HospitalStay</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ICU Stay</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Prognosis</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Ventillator</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Dialysis</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20240074281</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rakhi Devi</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Commensal Flora</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-6.66</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-7.48</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>UTI</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>118/76</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20240028527</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sunita</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Insignificant growth of colonizer</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-5.68</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20240118730</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parmila</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>